--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail7 Features.xlsx
@@ -4222,7 +4222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,29 +4233,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4276,115 +4274,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4401,72 +4389,66 @@
         <v>6.18901289305957e-09</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.7799881354956004</v>
+        <v>2.571507076499538e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.8370681360373435</v>
+        <v>4.150232484701624e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.571507076499538e-08</v>
+        <v>-0.03378072709027095</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.150232484701624e-07</v>
+        <v>0.2428571189471408</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03378072709027095</v>
+        <v>0.05999895180680232</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2428571189471408</v>
+        <v>1.92072214394402</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05999895180680232</v>
+        <v>4.407255152693762</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.962162801694889</v>
+        <v>9.3590199749666</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>4.407255152693762</v>
+        <v>1.16510328586921e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>9.3590199749666</v>
+        <v>300603013009.6962</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.16510328586921e-19</v>
+        <v>4.008045684899013e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>300603013009.6962</v>
+        <v>10528.12628519612</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.008045684899013e-10</v>
+        <v>1.915333866591071e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>10528.12628519612</v>
+        <v>7.684737738391966</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1.915333866591071e-06</v>
+        <v>1.913301569658138</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.684737738391966</v>
+        <v>0.0001131104132729046</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.913301569658138</v>
+        <v>9.092137134655053</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0001131104132729046</v>
+        <v>0.9653056954531652</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>9.092137134655053</v>
+        <v>0.6634075372754961</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9653056954531652</v>
+        <v>748</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6634075372754961</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>748</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>21.71880439718283</v>
       </c>
     </row>
@@ -4481,72 +4463,66 @@
         <v>6.037000662829145e-09</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.8638709595515212</v>
+        <v>1.836935110309148e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8833052485613169</v>
+        <v>4.148778036821655e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.836935110309148e-08</v>
+        <v>-0.01477088925008148</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.148778036821655e-07</v>
+        <v>0.1950467401964016</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01477088925008148</v>
+        <v>0.03819187311797699</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1950467401964016</v>
+        <v>1.920479190994646</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03819187311797699</v>
+        <v>3.99233607568114</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.962205437304923</v>
+        <v>8.387273863620377</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.99233607568114</v>
+        <v>1.069134442914606e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>8.387273863620377</v>
+        <v>319521591074.6641</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.069134442914606e-19</v>
+        <v>3.747887392169223e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>319521591074.6641</v>
+        <v>10915.22622383884</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.747887392169223e-10</v>
+        <v>1.88880675651191e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>10915.22622383884</v>
+        <v>6.835775753155584</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1.88880675651191e-06</v>
+        <v>2.043011508217941</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>6.835775753155584</v>
+        <v>8.82598412996063e-05</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>2.043011508217941</v>
+        <v>9.062850076282437</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>8.82598412996063e-05</v>
+        <v>0.9648260909165569</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>9.062850076282437</v>
+        <v>0.6123692596419028</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9648260909165569</v>
+        <v>753</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6123692596419028</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>753</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>21.85219073002556</v>
       </c>
     </row>
@@ -4561,72 +4537,66 @@
         <v>6.012241409951824e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.8608153434677293</v>
+        <v>1.724064728265466e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.881065433217092</v>
+        <v>4.148346601662142e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.724064728265466e-08</v>
+        <v>-0.0004185830948555384</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.148346601662142e-07</v>
+        <v>0.1588247538530737</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0004185830948555384</v>
+        <v>0.0251882167574444</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1588247538530737</v>
+        <v>1.915106386626009</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0251882167574444</v>
+        <v>4.727260133496652</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.958076774599694</v>
+        <v>8.123712388597294</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>4.727260133496652</v>
+        <v>1.049104888626089e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>8.123712388597294</v>
+        <v>316239649397.4962</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.049104888626089e-19</v>
+        <v>3.778222159404277e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>316239649397.4962</v>
+        <v>10491.8373778689</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.778222159404277e-10</v>
+        <v>1.960514127081907e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>10491.8373778689</v>
+        <v>6.526589432967284</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1.960514127081907e-06</v>
+        <v>2.108341875831826</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.526589432967284</v>
+        <v>8.351078441519555e-05</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.108341875831826</v>
+        <v>9.050324958512169</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>8.351078441519555e-05</v>
+        <v>0.9644409378250303</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>9.050324958512169</v>
+        <v>0.6151067096258512</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9644409378250303</v>
+        <v>750</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6151067096258512</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>750</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>22.12593854852938</v>
       </c>
     </row>
@@ -4641,72 +4611,66 @@
         <v>6.013515897910116e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.8750950935360017</v>
+        <v>1.724064728265466e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8652757797362844</v>
+        <v>4.148653447607011e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.724064728265466e-08</v>
+        <v>0.009964774293453882</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.148653447607011e-07</v>
+        <v>0.1342829916510811</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.009964774293453882</v>
+        <v>0.0181114521591601</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1342829916510811</v>
+        <v>1.911773616249357</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0181114521591601</v>
+        <v>4.61010636968222</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.954336146476592</v>
+        <v>8.190264509580416</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>4.61010636968222</v>
+        <v>1.032124610519324e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>8.190264509580416</v>
+        <v>318519869875.5124</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.032124610519324e-19</v>
+        <v>3.75144105721677e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>318519869875.5124</v>
+        <v>10471.4106894402</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.75144105721677e-10</v>
+        <v>2.058661168227267e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>10471.4106894402</v>
+        <v>6.481103362894102</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.058661168227267e-06</v>
+        <v>2.086458873620293</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.481103362894102</v>
+        <v>8.647344642102963e-05</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.086458873620293</v>
+        <v>9.058875542061424</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>8.647344642102963e-05</v>
+        <v>0.9639592451340011</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>9.058875542061424</v>
+        <v>0.6257446894117029</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9639592451340011</v>
+        <v>734</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6257446894117029</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>734</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>22.03567726640845</v>
       </c>
     </row>
@@ -4721,72 +4685,66 @@
         <v>5.995771783170355e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.9200811577993335</v>
+        <v>1.724064728265466e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.7927878969255397</v>
+        <v>4.14949010755124e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.724064728265466e-08</v>
+        <v>0.01741744311700566</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.14949010755124e-07</v>
+        <v>0.1191508138850779</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01741744311700566</v>
+        <v>0.01448999007417502</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1191508138850779</v>
+        <v>1.913653537274911</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01448999007417502</v>
+        <v>4.821758174199314</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.953832503683988</v>
+        <v>8.242674888262187</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>4.821758174199314</v>
+        <v>1.019040977807806e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.242674888262187</v>
+        <v>320857913462.4533</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.019040977807806e-19</v>
+        <v>3.727210729274453e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>320857913462.4533</v>
+        <v>10491.00655006212</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.727210729274453e-10</v>
+        <v>2.189446585520054e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10491.00655006212</v>
+        <v>7.316728309518972</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.189446585520054e-06</v>
+        <v>1.940429732517719</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.316728309518972</v>
+        <v>0.0001172109570353858</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.940429732517719</v>
+        <v>9.052612881586585</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0001172109570353858</v>
+        <v>0.9655165177216882</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>9.052612881586585</v>
+        <v>0.6095172923613881</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9655165177216882</v>
+        <v>725</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6095172923613881</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>725</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>21.54591847622116</v>
       </c>
     </row>
@@ -4801,72 +4759,66 @@
         <v>5.942720447267614e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.9868023199129525</v>
+        <v>1.724064728265466e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.6553157800177565</v>
+        <v>4.150700589902494e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.724064728265466e-08</v>
+        <v>0.02279691045051327</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.150700589902494e-07</v>
+        <v>0.1109205529790855</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.02279691045051327</v>
+        <v>0.01281777334438819</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1109205529790855</v>
+        <v>1.905269010948364</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01281777334438819</v>
+        <v>4.597296682959353</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.952040526784087</v>
+        <v>8.219598143136036</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>4.597296682959353</v>
+        <v>1.024770980569843e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.219598143136036</v>
+        <v>318361314264.8856</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.024770980569843e-19</v>
+        <v>3.746503196141033e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>318361314264.8856</v>
+        <v>10386.45625625039</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.746503196141033e-10</v>
+        <v>2.084633285664199e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10386.45625625039</v>
+        <v>7.315243155995542</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>2.084633285664199e-06</v>
+        <v>1.944733266883902</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.315243155995542</v>
+        <v>0.0001115545274648769</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.944733266883902</v>
+        <v>9.067386685776476</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0001115545274648769</v>
+        <v>0.9653371179107757</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>9.067386685776476</v>
+        <v>0.6318695686682874</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9653371179107757</v>
+        <v>716</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6318695686682874</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>716</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>21.16794497511017</v>
       </c>
     </row>
@@ -4881,72 +4833,66 @@
         <v>5.851060805353048e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.066241212259121</v>
+        <v>1.724064728265466e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.4607714290844021</v>
+        <v>4.152171623928466e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.724064728265466e-08</v>
+        <v>0.02687336939943992</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.152171623928466e-07</v>
+        <v>0.1071539873839271</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02687336939943992</v>
+        <v>0.01220139893316597</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1071539873839271</v>
+        <v>1.900705196521495</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01220139893316597</v>
+        <v>3.835820534169905</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.946850468087113</v>
+        <v>9.557429604637962</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.835820534169905</v>
+        <v>1.123255285878793e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>9.557429604637962</v>
+        <v>293427726661.566</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.123255285878793e-19</v>
+        <v>4.060352843461058e-10</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>293427726661.566</v>
+        <v>9671.2090029912</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.060352843461058e-10</v>
+        <v>1.892343814483148e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>9671.2090029912</v>
+        <v>6.464012691028675</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1.892343814483148e-06</v>
+        <v>2.128865207847446</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>6.464012691028675</v>
+        <v>7.906867221075135e-05</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>2.128865207847446</v>
+        <v>9.104085073062045</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>7.906867221075135e-05</v>
+        <v>0.9651778374922098</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>9.104085073062045</v>
+        <v>0.6590478859633025</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9651778374922098</v>
+        <v>694</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6590478859633025</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>694</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>21.22576988693405</v>
       </c>
     </row>
@@ -4961,72 +4907,66 @@
         <v>5.722183440120154e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.152867225902424</v>
+        <v>1.724064728265466e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.2171474827682389</v>
+        <v>4.153825424461643e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.724064728265466e-08</v>
+        <v>0.03011932376935166</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.153825424461643e-07</v>
+        <v>0.1063452862149339</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03011932376935166</v>
+        <v>0.01221508266240516</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1063452862149339</v>
+        <v>1.906294323486764</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01221508266240516</v>
+        <v>3.743631461978562</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.951619842764275</v>
+        <v>10.08722106032686</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.743631461978562</v>
+        <v>1.233737392456174e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>10.08722106032686</v>
+        <v>288443898276.2078</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.233737392456174e-19</v>
+        <v>4.17096760599565e-10</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>288443898276.2078</v>
+        <v>10264.68060299471</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.17096760599565e-10</v>
+        <v>1.873193021565306e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>10264.68060299471</v>
+        <v>6.709410785202985</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1.873193021565306e-06</v>
+        <v>2.159342486762053</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.709410785202985</v>
+        <v>8.432401874350558e-05</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>2.159342486762053</v>
+        <v>9.125911476771064</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>8.432401874350558e-05</v>
+        <v>0.9649525006587144</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>9.125911476771064</v>
+        <v>0.6656896400451434</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9649525006587144</v>
+        <v>710</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.6656896400451434</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>710</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>21.51167554314962</v>
       </c>
     </row>
@@ -5041,72 +4981,66 @@
         <v>5.558780367971665e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.243362723883011</v>
+        <v>1.724064728265466e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.07088050045506256</v>
+        <v>4.15560340331392e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.724064728265466e-08</v>
+        <v>0.03281008194284292</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.15560340331392e-07</v>
+        <v>0.1076270393243025</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03281008194284292</v>
+        <v>0.01265939454997614</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1076270393243025</v>
+        <v>1.90852873653666</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01265939454997614</v>
+        <v>4.164118859834021</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.950937666087325</v>
+        <v>9.975277446227368</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>4.164118859834021</v>
+        <v>1.261583025885082e-19</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>9.975277446227368</v>
+        <v>284275668790.0754</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.261583025885082e-19</v>
+        <v>4.231837955571334e-10</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>284275668790.0754</v>
+        <v>10195.18749172945</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.231837955571334e-10</v>
+        <v>1.987189214636918e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>10195.18749172945</v>
+        <v>6.786444009509888</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1.987189214636918e-06</v>
+        <v>2.038962512614565</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>6.786444009509888</v>
+        <v>9.152163333429391e-05</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>2.038962512614565</v>
+        <v>9.13847276225688</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>9.152163333429391e-05</v>
+        <v>0.9642431257111459</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>9.13847276225688</v>
+        <v>0.6729945811124952</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9642431257111459</v>
+        <v>709</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.6729945811124952</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>709</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>21.36612635875223</v>
       </c>
     </row>
@@ -5121,72 +5055,66 @@
         <v>5.363392257804695e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-1.335457233989416</v>
+        <v>1.724064728265466e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.4014660696830648</v>
+        <v>4.157462534075354e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.724064728265466e-08</v>
+        <v>0.03519854068257762</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.157462534075354e-07</v>
+        <v>0.1105297072761293</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.03519854068257762</v>
+        <v>0.01345549425036953</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1105297072761293</v>
+        <v>1.909291833871378</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01345549425036953</v>
+        <v>3.685935855700768</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.949760923004367</v>
+        <v>10.06327276463353</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.685935855700768</v>
+        <v>1.239616407134171e-19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>10.06327276463353</v>
+        <v>285918010987.2223</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.239616407134171e-19</v>
+        <v>4.209730095900626e-10</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>285918010987.2223</v>
+        <v>10133.75367935398</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.209730095900626e-10</v>
+        <v>2.237974154812793e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>10133.75367935398</v>
+        <v>7.275932236451347</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>2.237974154812793e-06</v>
+        <v>1.876531286565476</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.275932236451347</v>
+        <v>0.0001184765387940348</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.876531286565476</v>
+        <v>9.096310415281199</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0001184765387940348</v>
+        <v>0.9639300576552944</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>9.096310415281199</v>
+        <v>0.6791830759743132</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9639300576552944</v>
+        <v>704</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.6791830759743132</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>704</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>20.89898541017136</v>
       </c>
     </row>
@@ -5201,72 +5129,66 @@
         <v>5.138158098293569e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-1.427024487594021</v>
+        <v>1.724064728265466e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.7738817847188919</v>
+        <v>4.15937075696266e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.724064728265466e-08</v>
+        <v>0.0374282991250773</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.15937075696266e-07</v>
+        <v>0.1148856164371323</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.0374282991250773</v>
+        <v>0.01459957758518437</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1148856164371323</v>
+        <v>1.906291030480341</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01459957758518437</v>
+        <v>4.053034407282894</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.946835891239179</v>
+        <v>10.09178418738217</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>4.053034407282894</v>
+        <v>1.23262194495943e-19</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>10.09178418738217</v>
+        <v>286639035858.6994</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.23262194495943e-19</v>
+        <v>4.196657523336175e-10</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>286639035858.6994</v>
+        <v>10127.46064362001</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.196657523336175e-10</v>
+        <v>2.220612366423484e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>10127.46064362001</v>
+        <v>6.838593241323204</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2.220612366423484e-06</v>
+        <v>1.998853675189223</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>6.838593241323204</v>
+        <v>0.0001038499518420965</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.998853675189223</v>
+        <v>9.05278585647371</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0001038499518420965</v>
+        <v>0.9639952826481964</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>9.05278585647371</v>
+        <v>0.6557192014940112</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9639952826481964</v>
+        <v>711</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.6557192014940112</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>711</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>20.87780832005746</v>
       </c>
     </row>
@@ -5281,72 +5203,66 @@
         <v>4.884929329350374e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-1.515197194707929</v>
+        <v>1.724064728265466e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.186127510315226</v>
+        <v>4.161301262895049e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.724064728265466e-08</v>
+        <v>0.03956978430235808</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.161301262895049e-07</v>
+        <v>0.1207206208310117</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03956978430235808</v>
+        <v>0.01613938013786303</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1207206208310117</v>
+        <v>1.911098604804092</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01613938013786303</v>
+        <v>4.100912824957183</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.953109471445848</v>
+        <v>10.39767407034926</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>4.100912824957183</v>
+        <v>1.161163578327871e-19</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>10.39767407034926</v>
+        <v>298925625634.1943</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.161163578327871e-19</v>
+        <v>4.02230661879531e-10</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>298925625634.1943</v>
+        <v>10375.75477278887</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.02230661879531e-10</v>
+        <v>2.089411089940974e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>10375.75477278887</v>
+        <v>5.665379315950326</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>2.089411089940974e-06</v>
+        <v>2.347008818156607</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>5.665379315950326</v>
+        <v>6.706283067348646e-05</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>2.347008818156607</v>
+        <v>9.023247999274844</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>6.706283067348646e-05</v>
+        <v>0.9636064897459833</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>9.023247999274844</v>
+        <v>0.6290882422376737</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9636064897459833</v>
+        <v>720</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.6290882422376737</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>720</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>21.37156449047376</v>
       </c>
     </row>
@@ -5361,72 +5277,66 @@
         <v>4.605688527618058e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-1.595577740715344</v>
+        <v>1.723288839605683e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.632007567788753</v>
+        <v>4.163229681952931e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.723288839605683e-08</v>
+        <v>0.04167365984545</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.163229681952931e-07</v>
+        <v>0.1281638075555244</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.04167365984545</v>
+        <v>0.01816284185565562</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1281638075555244</v>
+        <v>1.910492050070013</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01816284185565562</v>
+        <v>4.034653095542653</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.95341453669433</v>
+        <v>10.38246785619722</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>4.034653095542653</v>
+        <v>1.164567361026878e-19</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>10.38246785619722</v>
+        <v>297802581786.8477</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.164567361026878e-19</v>
+        <v>4.022178609367735e-10</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>297802581786.8477</v>
+        <v>10328.12608591464</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.022178609367735e-10</v>
+        <v>2.032070170918864e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>10328.12608591464</v>
+        <v>5.712305857179182</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>2.032070170918864e-06</v>
+        <v>2.473622262515649</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>5.712305857179182</v>
+        <v>6.630734014234987e-05</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>2.473622262515649</v>
+        <v>9.010504190249559</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>6.630734014234987e-05</v>
+        <v>0.9629288721004435</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>9.010504190249559</v>
+        <v>0.6200533439740775</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9629288721004435</v>
+        <v>722</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.6200533439740775</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>722</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>21.86637793683596</v>
       </c>
     </row>
@@ -5441,72 +5351,66 @@
         <v>4.302629170458671e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-1.660906876516793</v>
+        <v>1.711564135086752e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2.095458832707715</v>
+        <v>4.165133289416086e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.711564135086752e-08</v>
+        <v>0.04378553800734725</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.165133289416086e-07</v>
+        <v>0.13743649122476</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.04378553800734725</v>
+        <v>0.02080605799213322</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.13743649122476</v>
+        <v>1.909653885673302</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02080605799213322</v>
+        <v>4.018738318135692</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.951480978238757</v>
+        <v>10.50013423056756</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>4.018738318135692</v>
+        <v>1.138612907026851e-19</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>10.50013423056756</v>
+        <v>300094945401.8662</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.138612907026851e-19</v>
+        <v>3.984589994692562e-10</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>300094945401.8662</v>
+        <v>10254.00355326066</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.984589994692562e-10</v>
+        <v>1.872081422048475e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>10254.00355326066</v>
+        <v>5.94644931133278</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>1.872081422048475e-06</v>
+        <v>2.417753399258738</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>5.94644931133278</v>
+        <v>6.619728472448814e-05</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>2.417753399258738</v>
+        <v>9.054067426518454</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>6.619728472448814e-05</v>
+        <v>0.9626203731332578</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>9.054067426518454</v>
+        <v>0.6469094173925543</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9626203731332578</v>
+        <v>708</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.6469094173925543</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>708</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>21.71479703626336</v>
       </c>
     </row>
@@ -5521,72 +5425,66 @@
         <v>3.978494535717174e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-1.698962398294609</v>
+        <v>1.684283489855324e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2.540002296925203</v>
+        <v>4.166989991264219e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.684283489855324e-08</v>
+        <v>0.04586863036130727</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.166989991264219e-07</v>
+        <v>0.1488520584941482</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04586863036130727</v>
+        <v>0.02426058200378986</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1488520584941482</v>
+        <v>1.910217978388987</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02426058200378986</v>
+        <v>4.099832034400665</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.950915917558992</v>
+        <v>10.51163414201693</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>4.099832034400665</v>
+        <v>1.136122944966651e-19</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>10.51163414201693</v>
+        <v>300879273745.2889</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.136122944966651e-19</v>
+        <v>3.982570813362256e-10</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>300879273745.2889</v>
+        <v>10285.13212551623</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.982570813362256e-10</v>
+        <v>1.9247518298777e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>10285.13212551623</v>
+        <v>7.010568501012277</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>1.9247518298777e-06</v>
+        <v>2.086079953708476</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.010568501012277</v>
+        <v>9.45978390289989e-05</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.086079953708476</v>
+        <v>9.065684989336898</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>9.45978390289989e-05</v>
+        <v>0.9627634357089206</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>9.065684989336898</v>
+        <v>0.6020113943705311</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9627634357089206</v>
+        <v>704</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6020113943705311</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>704</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>21.00988682017642</v>
       </c>
     </row>
@@ -5601,72 +5499,66 @@
         <v>3.638131926742902e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-1.69014005125086</v>
+        <v>1.63848658390178e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2.894342095794444</v>
+        <v>4.168773353130089e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.63848658390178e-08</v>
+        <v>0.04774527668804349</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.168773353130089e-07</v>
+        <v>0.1627024283622289</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04774527668804349</v>
+        <v>0.0287504644548797</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1627024283622289</v>
+        <v>1.908482907773971</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0287504644548797</v>
+        <v>3.937912492039691</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.948649964028082</v>
+        <v>10.47265753236189</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.937912492039691</v>
+        <v>1.144595412261363e-19</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>10.47265753236189</v>
+        <v>297299416310.613</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.144595412261363e-19</v>
+        <v>4.02204436145729e-10</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>297299416310.613</v>
+        <v>10116.72893913642</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.02204436145729e-10</v>
+        <v>2.017650519450669e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>10116.72893913642</v>
+        <v>6.765965313527981</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>2.017650519450669e-06</v>
+        <v>2.117086519732688</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>6.765965313527981</v>
+        <v>9.23645837862004e-05</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>2.117086519732688</v>
+        <v>9.023194479196743</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>9.23645837862004e-05</v>
+        <v>0.962607780491364</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>9.023194479196743</v>
+        <v>0.6419080880864605</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.962607780491364</v>
+        <v>680</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.6419080880864605</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>680</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>20.85753014005896</v>
       </c>
     </row>
@@ -6043,7 +5935,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.320309228337612</v>
+        <v>1.301113773287166</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.444084233283594</v>
@@ -6132,7 +6024,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.297345201705687</v>
+        <v>1.287607097113758</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.479069321239322</v>
@@ -6221,7 +6113,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.28028783519336</v>
+        <v>1.270108440081735</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.48817485519486</v>
@@ -6310,7 +6202,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.271539943189479</v>
+        <v>1.262659458656165</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.484753082271725</v>
@@ -6399,7 +6291,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.303930243070918</v>
+        <v>1.299809345551897</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.429835224117437</v>
@@ -6488,7 +6380,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.308587429284788</v>
+        <v>1.303714643212431</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.340998447282068</v>
@@ -6577,7 +6469,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.371355858326988</v>
+        <v>1.378801898977704</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.274954401804477</v>
@@ -6666,7 +6558,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.386838192522095</v>
+        <v>1.399783425422406</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.359837156544845</v>
@@ -6755,7 +6647,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.392317451985367</v>
+        <v>1.406705372091473</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.390167360077082</v>
@@ -6844,7 +6736,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.411880288772496</v>
+        <v>1.426936755559682</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.398141651560569</v>
@@ -6933,7 +6825,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.441287300739721</v>
+        <v>1.457701780118649</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.32633683682305</v>
@@ -7022,7 +6914,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.436351393390537</v>
+        <v>1.449905581649502</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.283454481696965</v>
@@ -7111,7 +7003,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.408753852967288</v>
+        <v>1.424884131369412</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.472193314773996</v>
@@ -7200,7 +7092,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.415183504042406</v>
+        <v>1.424949538026236</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.53142240583217</v>
@@ -7289,7 +7181,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.434827201956215</v>
+        <v>1.443244160583618</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.506892870139633</v>
@@ -7378,7 +7270,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.427086394919199</v>
+        <v>1.434189706229401</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.362154560031946</v>
@@ -7467,7 +7359,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.436104432419077</v>
+        <v>1.442295536336548</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.303914033528411</v>
@@ -7556,7 +7448,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.46316228957474</v>
+        <v>1.466156890681157</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.45529001468963</v>
@@ -7645,7 +7537,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.473797484616582</v>
+        <v>1.47483728686252</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.414138835953175</v>
@@ -7734,7 +7626,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.446370551360374</v>
+        <v>1.44472518523262</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.408138776841176</v>
@@ -7823,7 +7715,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.436824876716693</v>
+        <v>1.433832061504404</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.301380831742712</v>
@@ -7912,7 +7804,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.384859883396178</v>
+        <v>1.37673109630444</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.252010033435399</v>
@@ -8001,7 +7893,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.341395532315863</v>
+        <v>1.321374107063103</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.364338489841478</v>
@@ -8090,7 +7982,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.350867428721412</v>
+        <v>1.327064739457871</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.248833946154484</v>
@@ -8179,7 +8071,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.338411183240801</v>
+        <v>1.315697505409552</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.372268090684722</v>
@@ -8268,7 +8160,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.323127686270978</v>
+        <v>1.297125520470237</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.148479274337226</v>
@@ -8357,7 +8249,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.343297574881828</v>
+        <v>1.314407166988143</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.461768805830441</v>
@@ -8446,7 +8338,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.360598875471965</v>
+        <v>1.330651111394924</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.416363223044989</v>
@@ -8535,7 +8427,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.345043033379157</v>
+        <v>1.320011973829709</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.30715826549558</v>
@@ -8624,7 +8516,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.36562994519873</v>
+        <v>1.34054664629996</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.042401999189786</v>
@@ -8713,7 +8605,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.375767652466127</v>
+        <v>1.351802469509106</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.214875146934376</v>
@@ -8802,7 +8694,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.375948534695639</v>
+        <v>1.353489560832163</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.301857985747953</v>
@@ -8891,7 +8783,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.375553498944243</v>
+        <v>1.351462010806463</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.419949907655269</v>
@@ -8980,7 +8872,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.374555040445202</v>
+        <v>1.35539399400257</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.359597497578511</v>
@@ -9069,7 +8961,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.380882581691971</v>
+        <v>1.364122477922256</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.208871182907671</v>
@@ -9158,7 +9050,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.417321456098591</v>
+        <v>1.40143675566582</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.252051794481452</v>
@@ -9247,7 +9139,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.442131946181837</v>
+        <v>1.422226688622831</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.406127862564816</v>
@@ -9336,7 +9228,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.448866912739731</v>
+        <v>1.431063776017699</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.363994650392738</v>
@@ -9425,7 +9317,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.461659087932577</v>
+        <v>1.44821045874402</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.272241073369327</v>
@@ -9514,7 +9406,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.50058635705053</v>
+        <v>1.488671971914669</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.332149075330326</v>
@@ -9603,7 +9495,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.510021058554136</v>
+        <v>1.497008632218855</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.241997591315047</v>
@@ -9692,7 +9584,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.512063497175064</v>
+        <v>1.499095758583472</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.285410529128186</v>
@@ -9781,7 +9673,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.553220458017627</v>
+        <v>1.534145125484771</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.092663517741445</v>
@@ -9870,7 +9762,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.593824916664926</v>
+        <v>1.578024890006286</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.390680773245922</v>
@@ -9959,7 +9851,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.61059951868384</v>
+        <v>1.592741796402364</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.211741377137239</v>
@@ -10048,7 +9940,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.63674603266982</v>
+        <v>1.61481803134751</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.359548739813241</v>
@@ -10137,7 +10029,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.645885807735713</v>
+        <v>1.624474966978107</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.39707630274145</v>
@@ -10226,7 +10118,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.648456984776208</v>
+        <v>1.633413060730084</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.445275997574675</v>
@@ -10315,7 +10207,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.650730616793052</v>
+        <v>1.633942828190498</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.355408130936872</v>
@@ -10404,7 +10296,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.696062392362674</v>
+        <v>1.67381454461124</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.358457862178625</v>
@@ -10493,7 +10385,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.653666793430865</v>
+        <v>1.636949230200515</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.548432948118582</v>
@@ -10582,7 +10474,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.666700347550716</v>
+        <v>1.645235711338679</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.386355020612259</v>
@@ -10671,7 +10563,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.702195264357057</v>
+        <v>1.674093735418205</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.481318585885987</v>
@@ -10760,7 +10652,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.668448297113967</v>
+        <v>1.644908150404183</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.758697987783674</v>
@@ -10849,7 +10741,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.662574078161255</v>
+        <v>1.63616295257212</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.656266159325991</v>
@@ -10938,7 +10830,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.66522811486637</v>
+        <v>1.636243177973966</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.541066344940981</v>
@@ -11027,7 +10919,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.673218811300653</v>
+        <v>1.643661417124292</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.598568592355921</v>
@@ -11116,7 +11008,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.654270485917717</v>
+        <v>1.628400591962852</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.660367909766357</v>
@@ -11205,7 +11097,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.65443885680666</v>
+        <v>1.627352976636735</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.557999443244015</v>
@@ -11294,7 +11186,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.646719107579564</v>
+        <v>1.620680077216869</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.694954390313665</v>
@@ -11383,7 +11275,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.627392873806759</v>
+        <v>1.600518524550808</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.686189318728001</v>
@@ -11669,7 +11561,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.568969889646785</v>
+        <v>1.532084478926285</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.911348433130491</v>
@@ -11758,7 +11650,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.555301572053907</v>
+        <v>1.526753293763253</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.854208052056016</v>
@@ -11847,7 +11739,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.542655970894421</v>
+        <v>1.516083550946545</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.915495198616465</v>
@@ -11936,7 +11828,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.544373618683676</v>
+        <v>1.523040723622606</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.855636868048858</v>
@@ -12025,7 +11917,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.558447885534517</v>
+        <v>1.541662847134269</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.515387636841442</v>
@@ -12114,7 +12006,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.557545210204557</v>
+        <v>1.547478325037241</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.595271122312149</v>
@@ -12203,7 +12095,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.569904800123831</v>
+        <v>1.5776001798845</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.854609286373649</v>
@@ -12292,7 +12184,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.574866653298978</v>
+        <v>1.603923160511956</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.923852165520548</v>
@@ -12381,7 +12273,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.555015835335887</v>
+        <v>1.586223109881732</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.970719896419721</v>
@@ -12470,7 +12362,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.557944892327592</v>
+        <v>1.59019028576402</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.985154955602861</v>
@@ -12559,7 +12451,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.581300712860896</v>
+        <v>1.606143221104527</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.997491832011598</v>
@@ -12648,7 +12540,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.559557318301184</v>
+        <v>1.589138030132162</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.020868710726979</v>
@@ -12737,7 +12629,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.55804498039873</v>
+        <v>1.586106713969045</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.010485835868781</v>
@@ -12826,7 +12718,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.55361189065502</v>
+        <v>1.578205451063751</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.013774605849266</v>
@@ -12915,7 +12807,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.5498382469699</v>
+        <v>1.571500605522081</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.020570594525557</v>
@@ -13004,7 +12896,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.548694224566125</v>
+        <v>1.568567715257579</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.994299262479305</v>
@@ -13093,7 +12985,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.549131587112607</v>
+        <v>1.567406179485349</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.007150555050065</v>
@@ -13182,7 +13074,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.553069442561649</v>
+        <v>1.571883564238524</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.024929217572795</v>
@@ -13271,7 +13163,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.555727913320943</v>
+        <v>1.571383068734917</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.015113564427195</v>
@@ -13360,7 +13252,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.550166909775754</v>
+        <v>1.56100554391789</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.972591744606194</v>
@@ -13449,7 +13341,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548045985123192</v>
+        <v>1.555275054015617</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.866749034049321</v>
@@ -13538,7 +13430,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.561889890533462</v>
+        <v>1.551000101790586</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.986128592776719</v>
@@ -13627,7 +13519,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.526228518349429</v>
+        <v>1.488281387451561</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.17473475543548</v>
@@ -13716,7 +13608,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.539261546732492</v>
+        <v>1.495127430196278</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.161813232104966</v>
@@ -13805,7 +13697,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.52460812224401</v>
+        <v>1.477141539773745</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.177852580908703</v>
@@ -13894,7 +13786,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.510616281501157</v>
+        <v>1.446798688060087</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.873436601353262</v>
@@ -13983,7 +13875,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.506342102068657</v>
+        <v>1.441232734855679</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.596398191241534</v>
@@ -14072,7 +13964,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.50363519254473</v>
+        <v>1.439119239210561</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.475246251086584</v>
@@ -14161,7 +14053,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.503770931826399</v>
+        <v>1.4451897223146</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.129384034171168</v>
@@ -14250,7 +14142,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.508976480606885</v>
+        <v>1.451768131692647</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.849444283072104</v>
@@ -14339,7 +14231,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.518715694732768</v>
+        <v>1.461860786244001</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.940972026574026</v>
@@ -14428,7 +14320,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.519612906856373</v>
+        <v>1.465758906329757</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.15011201536408</v>
@@ -14517,7 +14409,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.515278154358273</v>
+        <v>1.460120056284554</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.974891958718374</v>
@@ -14606,7 +14498,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.517831035986203</v>
+        <v>1.461598130921071</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.83809490187769</v>
@@ -14695,7 +14587,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.528838017850647</v>
+        <v>1.479455558190521</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.898721539634975</v>
@@ -14784,7 +14676,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.522785071201457</v>
+        <v>1.481602050498213</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.199506583386231</v>
@@ -14873,7 +14765,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.52380744738596</v>
+        <v>1.483490787666041</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.944086341723083</v>
@@ -14962,7 +14854,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.518200367170347</v>
+        <v>1.482521542632327</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.11189238149944</v>
@@ -15051,7 +14943,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.534513556590797</v>
+        <v>1.498292955239062</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.002040658280574</v>
@@ -15140,7 +15032,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.554010081462941</v>
+        <v>1.520000334491204</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.679949437110793</v>
@@ -15229,7 +15121,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.553240613338512</v>
+        <v>1.524659524806239</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.851171095245138</v>
@@ -15318,7 +15210,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.541246281461622</v>
+        <v>1.50913572220329</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.085541739696552</v>
@@ -15407,7 +15299,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.54066993052985</v>
+        <v>1.514053596722162</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.868492970339113</v>
@@ -15496,7 +15388,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.550126631701252</v>
+        <v>1.522486214957646</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.084992653226979</v>
@@ -15585,7 +15477,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.551138752929527</v>
+        <v>1.525985825621739</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.257122793992615</v>
@@ -15674,7 +15566,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.54927037530174</v>
+        <v>1.531089357041837</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.254526080300741</v>
@@ -15763,7 +15655,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.552028262703243</v>
+        <v>1.533316766061036</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.03430120912983</v>
@@ -15852,7 +15744,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.558800725785858</v>
+        <v>1.541438221657859</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.440072922694472</v>
@@ -15941,7 +15833,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.565426920459839</v>
+        <v>1.552426267270013</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.449698227957215</v>
@@ -16030,7 +15922,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.565539131976067</v>
+        <v>1.551528902026257</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.94161434130891</v>
@@ -16119,7 +16011,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.568345687634078</v>
+        <v>1.548856737776906</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.04942179444855</v>
@@ -16208,7 +16100,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.571144367006209</v>
+        <v>1.554713687700502</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.29352391673231</v>
@@ -16297,7 +16189,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.573534757585908</v>
+        <v>1.554119278786177</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.589042032732975</v>
@@ -16386,7 +16278,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.578644184488588</v>
+        <v>1.55610869572445</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.02338414689097</v>
@@ -16475,7 +16367,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.571268473559412</v>
+        <v>1.546221864765784</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.494281526868829</v>
@@ -16564,7 +16456,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.58630131703988</v>
+        <v>1.564598653860301</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.849554745074953</v>
@@ -16653,7 +16545,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.597739394611475</v>
+        <v>1.575156712948901</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.296124276369446</v>
@@ -16742,7 +16634,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.588100257251767</v>
+        <v>1.567070910822062</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.1162923720875</v>
@@ -16831,7 +16723,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.602000103603493</v>
+        <v>1.574591412905209</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.870569747830718</v>
@@ -16920,7 +16812,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.595551505884014</v>
+        <v>1.5664896160115</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.231617781081371</v>
@@ -17009,7 +16901,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.585451613941844</v>
+        <v>1.554135086431427</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.121078704066295</v>
@@ -17295,7 +17187,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.609613430736522</v>
+        <v>1.568712440414597</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.457518709304793</v>
@@ -17384,7 +17276,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.601291368346185</v>
+        <v>1.561747054726026</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.597286914450526</v>
@@ -17473,7 +17365,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.596434400433826</v>
+        <v>1.554593975109369</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.299876939902267</v>
@@ -17562,7 +17454,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.592804347911789</v>
+        <v>1.552022365494284</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.410908654125206</v>
@@ -17651,7 +17543,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.61964544535625</v>
+        <v>1.579937712804479</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.229632679663934</v>
@@ -17740,7 +17632,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.62655022736346</v>
+        <v>1.597490543370293</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.257311064067803</v>
@@ -17829,7 +17721,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.687886154271435</v>
+        <v>1.665088019823373</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.569535717145144</v>
@@ -17918,7 +17810,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.704136712194029</v>
+        <v>1.690824562385458</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.574824733962038</v>
@@ -18007,7 +17899,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.711750429425808</v>
+        <v>1.699092068317855</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.772476662959749</v>
@@ -18096,7 +17988,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.725094370463227</v>
+        <v>1.708261053442849</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.795147198749232</v>
@@ -18185,7 +18077,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.747251513064273</v>
+        <v>1.735081903457714</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.859924695123931</v>
@@ -18274,7 +18166,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.738267528389935</v>
+        <v>1.721793932561686</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.812260088037012</v>
@@ -18363,7 +18255,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.732603303286461</v>
+        <v>1.71941459074275</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.917158032097863</v>
@@ -18452,7 +18344,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.71845666059724</v>
+        <v>1.707126717923047</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.950187447015118</v>
@@ -18541,7 +18433,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.715967863898235</v>
+        <v>1.705039219902166</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.954609521480176</v>
@@ -18630,7 +18522,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.720895696852422</v>
+        <v>1.705422405669539</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.934492478651832</v>
@@ -18719,7 +18611,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.70893986280231</v>
+        <v>1.697949189156141</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.810624672257256</v>
@@ -18808,7 +18700,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.710952537121845</v>
+        <v>1.702392820109685</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.908734315007735</v>
@@ -18897,7 +18789,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.711185794357751</v>
+        <v>1.697832569064814</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.826462260412202</v>
@@ -18986,7 +18878,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.694751984937136</v>
+        <v>1.679478906644207</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.881249790614423</v>
@@ -19075,7 +18967,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.684577609140738</v>
+        <v>1.661985545113066</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.592763247288936</v>
@@ -19164,7 +19056,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.645298534023653</v>
+        <v>1.616527642966862</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.403333965107896</v>
@@ -19253,7 +19145,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.610787699367833</v>
+        <v>1.573970733478238</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.607080825441692</v>
@@ -19342,7 +19234,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.611876500534579</v>
+        <v>1.572437681630467</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.609835997313112</v>
@@ -19431,7 +19323,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.601296837739027</v>
+        <v>1.564973350665522</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.639466942582891</v>
@@ -19520,7 +19412,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.575291167009591</v>
+        <v>1.533272869872501</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.23716844080454</v>
@@ -19609,7 +19501,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.569818405362898</v>
+        <v>1.532155195436484</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.12838778451484</v>
@@ -19698,7 +19590,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.569264736292081</v>
+        <v>1.526645381647302</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.856731473294407</v>
@@ -19787,7 +19679,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.572274061528751</v>
+        <v>1.532990642625483</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.042858769219565</v>
@@ -19876,7 +19768,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.588233469224259</v>
+        <v>1.54329334447021</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.960790626834942</v>
@@ -19965,7 +19857,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.593567408092037</v>
+        <v>1.555809213371693</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.112820043973965</v>
@@ -20054,7 +19946,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.606844503030247</v>
+        <v>1.570415714641972</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.516469496535543</v>
@@ -20143,7 +20035,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.605437242774528</v>
+        <v>1.567447847408073</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.170559756897872</v>
@@ -20232,7 +20124,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.610819257581231</v>
+        <v>1.580078783355602</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.404024842055423</v>
@@ -20321,7 +20213,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.603719764425785</v>
+        <v>1.573378550148164</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.179860926819548</v>
@@ -20410,7 +20302,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.614493482105099</v>
+        <v>1.59332175565803</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.574347702154219</v>
@@ -20499,7 +20391,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.624300387521765</v>
+        <v>1.603523708386936</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.452699709898019</v>
@@ -20588,7 +20480,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.604291012044804</v>
+        <v>1.585809554771799</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.668075051437658</v>
@@ -20677,7 +20569,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.591328772208715</v>
+        <v>1.576032497377144</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.447356300573276</v>
@@ -20766,7 +20658,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.594990063950384</v>
+        <v>1.577144103700653</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.351371165070157</v>
@@ -20855,7 +20747,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.594098181460303</v>
+        <v>1.575222757601677</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.633457577857892</v>
@@ -20944,7 +20836,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.589820429832348</v>
+        <v>1.569901298782879</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.621516441181056</v>
@@ -21033,7 +20925,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.59650500051789</v>
+        <v>1.579282777548324</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.987556199581957</v>
@@ -21122,7 +21014,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.601758341162063</v>
+        <v>1.58356037214053</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.62667347252825</v>
@@ -21211,7 +21103,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.601470912493055</v>
+        <v>1.585030488122647</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.857048603797427</v>
@@ -21300,7 +21192,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.604333067869305</v>
+        <v>1.580343914125917</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.371356092753892</v>
@@ -21389,7 +21281,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.607301211669353</v>
+        <v>1.582866318283103</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.197134375859109</v>
@@ -21478,7 +21370,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.604889075628519</v>
+        <v>1.577066525845931</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.279708269337152</v>
@@ -21567,7 +21459,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.592318139379373</v>
+        <v>1.562524987430484</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.687932380731696</v>
@@ -21656,7 +21548,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.60225461039266</v>
+        <v>1.573112021234169</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.374413366004395</v>
@@ -21745,7 +21637,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.602904344081239</v>
+        <v>1.567263364099736</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.290268280492424</v>
@@ -21834,7 +21726,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.606961000803006</v>
+        <v>1.572805893528894</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.026171710326741</v>
@@ -21923,7 +21815,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.62249130324111</v>
+        <v>1.588338896277092</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.637769803059362</v>
@@ -22012,7 +21904,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.623563418911438</v>
+        <v>1.590447604476979</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.712784236287504</v>
@@ -22101,7 +21993,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.625853091418536</v>
+        <v>1.593465246719421</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.618309805364182</v>
@@ -22190,7 +22082,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.630460211784054</v>
+        <v>1.595400899699858</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.366051673052673</v>
@@ -22279,7 +22171,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.646638691311972</v>
+        <v>1.609216055430499</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.867821154477688</v>
@@ -22368,7 +22260,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.641103141917316</v>
+        <v>1.601895268042666</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.313412150500908</v>
@@ -22457,7 +22349,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.648521327198454</v>
+        <v>1.606520092210602</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.367629941709952</v>
@@ -22546,7 +22438,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.648984318102414</v>
+        <v>1.608225621442939</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.46501197948821</v>
@@ -22635,7 +22527,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.650091679590299</v>
+        <v>1.610281853778275</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.492651220985519</v>
@@ -22921,7 +22813,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.563785315660251</v>
+        <v>1.548424577458709</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.426821064887861</v>
@@ -23010,7 +22902,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.558076228297229</v>
+        <v>1.544836335254903</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.428199331636118</v>
@@ -23099,7 +22991,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.553725659389028</v>
+        <v>1.541572981378101</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.703384829271015</v>
@@ -23188,7 +23080,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.547924729820835</v>
+        <v>1.534304358474252</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.245620311224009</v>
@@ -23277,7 +23169,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.581108928615391</v>
+        <v>1.571302529717412</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.221717500811311</v>
@@ -23366,7 +23258,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.606638555538095</v>
+        <v>1.596432647977699</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.871917789976253</v>
@@ -23455,7 +23347,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.649199837346344</v>
+        <v>1.645592739021467</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.575695325134996</v>
@@ -23544,7 +23436,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.661686730326186</v>
+        <v>1.658289550135662</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.600717172491548</v>
@@ -23633,7 +23525,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.664509388990975</v>
+        <v>1.665307968884476</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.73548667327808</v>
@@ -23722,7 +23614,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.678362768164488</v>
+        <v>1.677432671062857</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.686842901055706</v>
@@ -23811,7 +23703,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.703049908934926</v>
+        <v>1.701399350236837</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.695865573483813</v>
@@ -23900,7 +23792,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.695295289889603</v>
+        <v>1.693619280902646</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.661638500897489</v>
@@ -23989,7 +23881,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.684744684272115</v>
+        <v>1.683816078723277</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.912225053550964</v>
@@ -24078,7 +23970,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.685179494768699</v>
+        <v>1.687106287508678</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.933521072546463</v>
@@ -24167,7 +24059,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.693184703976182</v>
+        <v>1.693988165236705</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.94706840317902</v>
@@ -24256,7 +24148,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.701918970793045</v>
+        <v>1.697441934454119</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.857644394664864</v>
@@ -24345,7 +24237,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.71050632763672</v>
+        <v>1.70384650508125</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.66968228761557</v>
@@ -24434,7 +24326,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.716241635722056</v>
+        <v>1.705162329151367</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.807719231531592</v>
@@ -24523,7 +24415,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.710613983181144</v>
+        <v>1.696612367204424</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.785725772661761</v>
@@ -24612,7 +24504,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.687898974608732</v>
+        <v>1.67581557203497</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.757430416619763</v>
@@ -24701,7 +24593,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.67172067679161</v>
+        <v>1.664562515848826</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.637890810613138</v>
@@ -24790,7 +24682,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.637818071099709</v>
+        <v>1.624684117051383</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.6873121549397</v>
@@ -24879,7 +24771,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.616421159161905</v>
+        <v>1.600400776132605</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.769975241730119</v>
@@ -24968,7 +24860,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.621802796729055</v>
+        <v>1.602298705909175</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.793209947575116</v>
@@ -25057,7 +24949,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.609965809248125</v>
+        <v>1.592104644396671</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.716807298670883</v>
@@ -25146,7 +25038,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.593022053017247</v>
+        <v>1.568433199517884</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.292935268002511</v>
@@ -25235,7 +25127,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.599813770528938</v>
+        <v>1.576183704898166</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.978852812864512</v>
@@ -25324,7 +25216,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.622937862984837</v>
+        <v>1.593899178021432</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.25152374394465</v>
@@ -25413,7 +25305,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.61897158781022</v>
+        <v>1.590258852114612</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.572732820280971</v>
@@ -25502,7 +25394,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.635308521700531</v>
+        <v>1.606165653303359</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.285320709933072</v>
@@ -25591,7 +25483,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.634385623727765</v>
+        <v>1.60800052985472</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.310034640819449</v>
@@ -25680,7 +25572,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.634981984802478</v>
+        <v>1.615623096695911</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.596554263308178</v>
@@ -25769,7 +25661,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.635900940635736</v>
+        <v>1.620086803608742</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.597638795871074</v>
@@ -25858,7 +25750,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.652308018487891</v>
+        <v>1.643847111870471</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.213001724013627</v>
@@ -25947,7 +25839,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.665905209519553</v>
+        <v>1.6554386618268</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.345267861767047</v>
@@ -26036,7 +25928,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.671429708804635</v>
+        <v>1.659898708386679</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.086669700644045</v>
@@ -26125,7 +26017,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.686231960617019</v>
+        <v>1.669925384196794</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.403393253811495</v>
@@ -26214,7 +26106,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.693365624844046</v>
+        <v>1.679973322004395</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.371148291627705</v>
@@ -26303,7 +26195,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.700448618023226</v>
+        <v>1.686887131450296</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.384588069762843</v>
@@ -26392,7 +26284,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.711409009840465</v>
+        <v>1.69484769822959</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.276463535812564</v>
@@ -26481,7 +26373,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.71660661383938</v>
+        <v>1.69631982352911</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.69733143028</v>
@@ -26570,7 +26462,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.717812791255023</v>
+        <v>1.690617291873841</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.248857681585189</v>
@@ -26659,7 +26551,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.725171853265586</v>
+        <v>1.700129673348128</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.373696358104616</v>
@@ -26748,7 +26640,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.732098806638046</v>
+        <v>1.709561269451897</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.332345463795152</v>
@@ -26837,7 +26729,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.736047597380025</v>
+        <v>1.711076585063194</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.241864103208055</v>
@@ -26926,7 +26818,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.75264602888866</v>
+        <v>1.723441653892102</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.719182568304925</v>
@@ -27015,7 +26907,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.758405708978143</v>
+        <v>1.728746335676535</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.430651405916609</v>
@@ -27104,7 +26996,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.751439531107608</v>
+        <v>1.719465840575351</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.823299449379302</v>
@@ -27193,7 +27085,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.752783989087152</v>
+        <v>1.71881114826161</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.711803260959373</v>
@@ -27282,7 +27174,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.760349248625551</v>
+        <v>1.727880363503026</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.015503970227674</v>
@@ -27371,7 +27263,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.7716748486117</v>
+        <v>1.737366269585678</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.255316302615862</v>
@@ -27460,7 +27352,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.769948748630244</v>
+        <v>1.736615950593978</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.171299693598172</v>
@@ -27549,7 +27441,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.781671007252634</v>
+        <v>1.745355891189262</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.930797773686058</v>
@@ -27638,7 +27530,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.786012198981195</v>
+        <v>1.747179095569517</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.230199995474857</v>
@@ -27727,7 +27619,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.792945848504444</v>
+        <v>1.753920406317962</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.556338508197783</v>
@@ -27816,7 +27708,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.792590696960863</v>
+        <v>1.754863579928531</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.951795790158763</v>
@@ -27905,7 +27797,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.797614322559695</v>
+        <v>1.764967429657838</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.08940845966936</v>
@@ -27994,7 +27886,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.801079332362412</v>
+        <v>1.76659206727438</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.017540821418391</v>
@@ -28083,7 +27975,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.807934281463907</v>
+        <v>1.77081185659869</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.808993650289375</v>
@@ -28172,7 +28064,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.805501690830738</v>
+        <v>1.766441885506311</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.306814915170088</v>
@@ -28261,7 +28153,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.804379031047239</v>
+        <v>1.765991200709576</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.921184771806813</v>
@@ -28547,7 +28439,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.437267699860981</v>
+        <v>1.434389956245045</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.124682038619921</v>
@@ -28636,7 +28528,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.432157580928529</v>
+        <v>1.432068905046141</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.736309958790129</v>
@@ -28725,7 +28617,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.436904480135535</v>
+        <v>1.434523570877344</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.015317160258829</v>
@@ -28814,7 +28706,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.447570387566665</v>
+        <v>1.452978110273905</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.002568598711877</v>
@@ -28903,7 +28795,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.486748518041802</v>
+        <v>1.494993851950706</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.609246108239871</v>
@@ -28992,7 +28884,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.495844117970486</v>
+        <v>1.515530467828393</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.736869654067756</v>
@@ -29081,7 +28973,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.574671997418662</v>
+        <v>1.602063376630396</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.297200420864672</v>
@@ -29170,7 +29062,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.599269448052946</v>
+        <v>1.638106770987817</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.320824317118589</v>
@@ -29259,7 +29151,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.582862632339837</v>
+        <v>1.623345302008488</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.373103286847788</v>
@@ -29348,7 +29240,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.569422676211582</v>
+        <v>1.611731401663558</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.38870280758907</v>
@@ -29437,7 +29329,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.599856461710119</v>
+        <v>1.634111309057801</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.446655777352128</v>
@@ -29526,7 +29418,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.584369366852989</v>
+        <v>1.625049528167463</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.403258514606625</v>
@@ -29615,7 +29507,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.582139228164836</v>
+        <v>1.620995059857986</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.476129990944386</v>
@@ -29704,7 +29596,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.578473686291284</v>
+        <v>1.614301988006268</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.392812504828517</v>
@@ -29793,7 +29685,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.584740203938857</v>
+        <v>1.615786426450203</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.465319938705322</v>
@@ -29882,7 +29774,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.588866969397549</v>
+        <v>1.617484699598676</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.462904256296277</v>
@@ -29971,7 +29863,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.592332096793481</v>
+        <v>1.616066088103986</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.484144856624225</v>
@@ -30060,7 +29952,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.588012434054193</v>
+        <v>1.610775686268513</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.473327689235636</v>
@@ -30149,7 +30041,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.578217935169907</v>
+        <v>1.601869736596527</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.373989544791244</v>
@@ -30238,7 +30130,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554748724660683</v>
+        <v>1.574180651546069</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.242236822826916</v>
@@ -30327,7 +30219,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.547965215285957</v>
+        <v>1.562649755096746</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.325288596582278</v>
@@ -30416,7 +30308,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.473528654696045</v>
+        <v>1.476004346309339</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.055808326630553</v>
@@ -30505,7 +30397,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.400253876320457</v>
+        <v>1.390097966797553</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.375294786805023</v>
@@ -30594,7 +30486,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.40150347643986</v>
+        <v>1.387746412164137</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.408784488825737</v>
@@ -30683,7 +30575,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.401473307902885</v>
+        <v>1.390684309656731</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.245104365777187</v>
@@ -30772,7 +30664,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.355429447133584</v>
+        <v>1.33618324828148</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.809507687371031</v>
@@ -30861,7 +30753,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.346554982209129</v>
+        <v>1.331041628205219</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.588371944501027</v>
@@ -30950,7 +30842,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.347893009554247</v>
+        <v>1.334051024686944</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.943348828073713</v>
@@ -31039,7 +30931,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.350829381033136</v>
+        <v>1.34308614219547</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.836203189404924</v>
@@ -31128,7 +31020,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.363642610291752</v>
+        <v>1.355146612775707</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.553413640332402</v>
@@ -31217,7 +31109,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.361262956402856</v>
+        <v>1.35591045354083</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.878946431415733</v>
@@ -31306,7 +31198,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.361715794375824</v>
+        <v>1.359245648154146</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.820277988718074</v>
@@ -31395,7 +31287,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.373118452865103</v>
+        <v>1.370081366095972</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.441508988885316</v>
@@ -31484,7 +31376,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.37634112365514</v>
+        <v>1.36980196290005</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.898921810648245</v>
@@ -31573,7 +31465,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.39488908647069</v>
+        <v>1.389126691143011</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.721545335331634</v>
@@ -31662,7 +31554,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.387282275703458</v>
+        <v>1.385732838949958</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.711948350969697</v>
@@ -31751,7 +31643,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.4039170319173</v>
+        <v>1.402586642448053</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.644438507604935</v>
@@ -31840,7 +31732,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.421467900084875</v>
+        <v>1.418513402647213</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.553598274479513</v>
@@ -31929,7 +31821,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.432775140113467</v>
+        <v>1.430401424493559</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.830335899453273</v>
@@ -32018,7 +31910,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.429451367581294</v>
+        <v>1.429417944767561</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.894104035834594</v>
@@ -32107,7 +31999,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.426962201593203</v>
+        <v>1.425643050386028</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.80535792105642</v>
@@ -32196,7 +32088,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.436230157327539</v>
+        <v>1.427836913484409</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.034626739624954</v>
@@ -32285,7 +32177,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.436457496271835</v>
+        <v>1.428771480530763</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.942307064410691</v>
@@ -32374,7 +32266,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.429624427299872</v>
+        <v>1.419554205399347</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.914702279368556</v>
@@ -32463,7 +32355,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.416341970296807</v>
+        <v>1.410289647769324</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.995394429423057</v>
@@ -32552,7 +32444,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.4112185091756</v>
+        <v>1.410210337929648</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.902303944569935</v>
@@ -32641,7 +32533,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.413033519039011</v>
+        <v>1.41528105179818</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.701478474059901</v>
@@ -32730,7 +32622,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.416105943250665</v>
+        <v>1.419015606154369</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.516900127222204</v>
@@ -32819,7 +32711,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.413060125330284</v>
+        <v>1.422030715361792</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.793741609459572</v>
@@ -32908,7 +32800,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.411746712284965</v>
+        <v>1.421658196341066</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.589489384561</v>
@@ -32997,7 +32889,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.418530112631349</v>
+        <v>1.427930720227718</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.662413290928636</v>
@@ -33086,7 +32978,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.424381981500985</v>
+        <v>1.429976861309935</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.795081187162055</v>
@@ -33175,7 +33067,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.428354167373612</v>
+        <v>1.433960138798588</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.62024372357032</v>
@@ -33264,7 +33156,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.435254279877371</v>
+        <v>1.435629892979139</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.587026981748167</v>
@@ -33353,7 +33245,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.434921758601073</v>
+        <v>1.432892276722129</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.764285363491021</v>
@@ -33442,7 +33334,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.445190606718049</v>
+        <v>1.442404484945621</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.678288519892433</v>
@@ -33531,7 +33423,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.447122626467679</v>
+        <v>1.445321014359161</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.520069082701632</v>
@@ -33620,7 +33512,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.450600250261396</v>
+        <v>1.450359654460712</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.763592359724799</v>
@@ -33709,7 +33601,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.462073128953222</v>
+        <v>1.462313790786272</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.725149988646282</v>
@@ -33798,7 +33690,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.458621142352783</v>
+        <v>1.453854446102143</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.882711515200387</v>
@@ -33887,7 +33779,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.456038878428585</v>
+        <v>1.447661039128651</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.155285505897373</v>
@@ -34173,7 +34065,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.365964514407868</v>
+        <v>1.370208581384518</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.40597365284192</v>
@@ -34262,7 +34154,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.342028566720749</v>
+        <v>1.35468542062978</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.393768752746996</v>
@@ -34351,7 +34243,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.332792644610843</v>
+        <v>1.341989842423073</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.330372353026767</v>
@@ -34440,7 +34332,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.330353217535403</v>
+        <v>1.34070274632061</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.412275613944425</v>
@@ -34529,7 +34421,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.35469006314074</v>
+        <v>1.362790005379489</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.378727522389706</v>
@@ -34618,7 +34510,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.363529742842157</v>
+        <v>1.374906984246523</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.279871319106078</v>
@@ -34707,7 +34599,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.419137096653235</v>
+        <v>1.439257203250197</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.488927619904292</v>
@@ -34796,7 +34688,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.430234499222237</v>
+        <v>1.456309261777085</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.617618358117357</v>
@@ -34885,7 +34777,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.428805613930269</v>
+        <v>1.457310685580786</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.700333389074445</v>
@@ -34974,7 +34866,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.447900407452485</v>
+        <v>1.477077446531877</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.459013205500804</v>
@@ -35063,7 +34955,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.477042787377608</v>
+        <v>1.504216874582829</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.532168274714725</v>
@@ -35152,7 +35044,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.477995737028944</v>
+        <v>1.501678207653496</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.273341452804817</v>
@@ -35241,7 +35133,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.453716294387384</v>
+        <v>1.482940727161365</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.632134379174189</v>
@@ -35330,7 +35222,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.46343759404898</v>
+        <v>1.489341119978563</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.588032833112063</v>
@@ -35419,7 +35311,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.484283958089159</v>
+        <v>1.508407952868551</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.720013263894734</v>
@@ -35508,7 +35400,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.489574396415983</v>
+        <v>1.511311517245766</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.333849780640925</v>
@@ -35597,7 +35489,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.495814671061879</v>
+        <v>1.51705071047206</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.420573948084014</v>
@@ -35686,7 +35578,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.519733791876029</v>
+        <v>1.541045747750308</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.533450553330905</v>
@@ -35775,7 +35667,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.519987981413057</v>
+        <v>1.538013936310871</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.582896788493246</v>
@@ -35864,7 +35756,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.503860971994064</v>
+        <v>1.52340690480252</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.63571117360772</v>
@@ -35953,7 +35845,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.496563039870604</v>
+        <v>1.518600439333907</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.428559629414777</v>
@@ -36042,7 +35934,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.447978185305255</v>
+        <v>1.460924158868487</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.501800369311302</v>
@@ -36131,7 +36023,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.421684022949511</v>
+        <v>1.427948006064702</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.32688673750069</v>
@@ -36220,7 +36112,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.444519247088951</v>
+        <v>1.446884839191983</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.265388935347806</v>
@@ -36309,7 +36201,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.439718721410035</v>
+        <v>1.442707274000947</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.433578203608028</v>
@@ -36398,7 +36290,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.431924229932392</v>
+        <v>1.433598033929345</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.26236501206421</v>
@@ -36487,7 +36379,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.458845185876997</v>
+        <v>1.460911525676272</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.469924611644308</v>
@@ -36576,7 +36468,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.483811714139143</v>
+        <v>1.48167375485736</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.759891207814</v>
@@ -36665,7 +36557,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.461277242455881</v>
+        <v>1.464213545775105</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.482540104127178</v>
@@ -36754,7 +36646,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.475808893617835</v>
+        <v>1.47844212202739</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.627213660990277</v>
@@ -36843,7 +36735,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.495079140550298</v>
+        <v>1.499910356229152</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.569370556418968</v>
@@ -36932,7 +36824,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.508600137927861</v>
+        <v>1.5152113162061</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.795978218366133</v>
@@ -37021,7 +36913,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.522114051507908</v>
+        <v>1.527558632976008</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.788074295598956</v>
@@ -37110,7 +37002,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.534951844380588</v>
+        <v>1.542415015459708</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.713071981705328</v>
@@ -37199,7 +37091,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.549085711653434</v>
+        <v>1.560574363003598</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.530492761537292</v>
@@ -37288,7 +37180,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.581257515635401</v>
+        <v>1.58856206557151</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.579531151446965</v>
@@ -37377,7 +37269,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.619378022820569</v>
+        <v>1.626338104875962</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.940081732852737</v>
@@ -37466,7 +37358,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.650187945214012</v>
+        <v>1.660292882456543</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.982506833153479</v>
@@ -37555,7 +37447,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.666800118353151</v>
+        <v>1.672718151179835</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.737302037465703</v>
@@ -37644,7 +37536,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.694942419873895</v>
+        <v>1.69856554325337</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.821929632667415</v>
@@ -37733,7 +37625,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.709532874344473</v>
+        <v>1.709647250538552</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.885016657326772</v>
@@ -37822,7 +37714,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.714426488849208</v>
+        <v>1.713494026047549</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.960607074699047</v>
@@ -37911,7 +37803,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.76868341000204</v>
+        <v>1.759981642070411</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.681995391428858</v>
@@ -38000,7 +37892,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.805617401948876</v>
+        <v>1.791373848364425</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.042882271354678</v>
@@ -38089,7 +37981,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.810471390854786</v>
+        <v>1.799180890362724</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.018889188083129</v>
@@ -38178,7 +38070,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.834646213420409</v>
+        <v>1.820887445494118</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.194331336916659</v>
@@ -38267,7 +38159,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.844698728886972</v>
+        <v>1.826361476100206</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.243898417167261</v>
@@ -38356,7 +38248,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.847381194996554</v>
+        <v>1.826875747747102</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.546664866579543</v>
@@ -38445,7 +38337,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.855937850258699</v>
+        <v>1.832087849087197</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.113952610978975</v>
@@ -38534,7 +38426,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.881077782159321</v>
+        <v>1.853355302004373</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.496759016533287</v>
@@ -38623,7 +38515,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.861589795548883</v>
+        <v>1.834724875122093</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.034889318982276</v>
@@ -38712,7 +38604,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.865005287000045</v>
+        <v>1.836523372311614</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.156230297579079</v>
@@ -38801,7 +38693,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.880428823611839</v>
+        <v>1.843680370780322</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.09867216401014</v>
@@ -38890,7 +38782,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.86178518292747</v>
+        <v>1.830624313914266</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.453200342456856</v>
@@ -38979,7 +38871,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.861613651458834</v>
+        <v>1.826798493197116</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.097192584862384</v>
@@ -39068,7 +38960,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.863123476139362</v>
+        <v>1.823432335507597</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.295571301811208</v>
@@ -39157,7 +39049,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.867021779432693</v>
+        <v>1.826520670862749</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.462503633527396</v>
@@ -39246,7 +39138,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.847929126742332</v>
+        <v>1.804308949911541</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.293367067305251</v>
@@ -39335,7 +39227,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.847775955150863</v>
+        <v>1.806194374108126</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.551882408097066</v>
@@ -39424,7 +39316,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.854889315273999</v>
+        <v>1.807213646847725</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.225074949063091</v>
@@ -39513,7 +39405,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.845423241657169</v>
+        <v>1.798316597937856</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.918463074528105</v>
